--- a/natmiOut/OldD0/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Itga2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.72753633195909</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H2">
-        <v>5.72753633195909</v>
+        <v>19.318993</v>
       </c>
       <c r="I2">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="J2">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.08493734603426</v>
+        <v>1.888921</v>
       </c>
       <c r="N2">
-        <v>1.08493734603426</v>
+        <v>5.666763</v>
       </c>
       <c r="O2">
-        <v>0.4808910976560867</v>
+        <v>0.4551532417350329</v>
       </c>
       <c r="P2">
-        <v>0.4808910976560867</v>
+        <v>0.4551532417350328</v>
       </c>
       <c r="Q2">
-        <v>6.214018067310495</v>
+        <v>12.16401719218433</v>
       </c>
       <c r="R2">
-        <v>6.214018067310495</v>
+        <v>109.476154729659</v>
       </c>
       <c r="S2">
-        <v>0.4236173222439736</v>
+        <v>0.4033333344497799</v>
       </c>
       <c r="T2">
-        <v>0.4236173222439736</v>
+        <v>0.4033333344497799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.72753633195909</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H3">
-        <v>5.72753633195909</v>
+        <v>19.318993</v>
       </c>
       <c r="I3">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="J3">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17116045099787</v>
+        <v>1.087098333333333</v>
       </c>
       <c r="N3">
-        <v>1.17116045099787</v>
+        <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.5191089023439134</v>
+        <v>0.2619465454094788</v>
       </c>
       <c r="P3">
-        <v>0.5191089023439134</v>
+        <v>0.2619465454094787</v>
       </c>
       <c r="Q3">
-        <v>6.707864033643894</v>
+        <v>7.000548363992778</v>
       </c>
       <c r="R3">
-        <v>6.707864033643894</v>
+        <v>63.004935275935</v>
       </c>
       <c r="S3">
-        <v>0.4572834145522129</v>
+        <v>0.2321235221897219</v>
       </c>
       <c r="T3">
-        <v>0.4572834145522129</v>
+        <v>0.2321235221897218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.774372558241177</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H4">
-        <v>0.774372558241177</v>
+        <v>19.318993</v>
       </c>
       <c r="I4">
-        <v>0.1190992632038136</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="J4">
-        <v>0.1190992632038136</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.08493734603426</v>
+        <v>1.174057666666667</v>
       </c>
       <c r="N4">
-        <v>1.08493734603426</v>
+        <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.4808910976560867</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="P4">
-        <v>0.4808910976560867</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="Q4">
-        <v>0.8401457081799429</v>
+        <v>7.560537281309889</v>
       </c>
       <c r="R4">
-        <v>0.8401457081799429</v>
+        <v>68.044835531789</v>
       </c>
       <c r="S4">
-        <v>0.05727377541211309</v>
+        <v>0.250691581878223</v>
       </c>
       <c r="T4">
-        <v>0.05727377541211309</v>
+        <v>0.250691581878223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.482087</v>
+      </c>
+      <c r="I5">
+        <v>0.1138515614822752</v>
+      </c>
+      <c r="J5">
+        <v>0.1138515614822752</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.888921</v>
+      </c>
+      <c r="N5">
+        <v>5.666763</v>
+      </c>
+      <c r="O5">
+        <v>0.4551532417350329</v>
+      </c>
+      <c r="P5">
+        <v>0.4551532417350328</v>
+      </c>
+      <c r="Q5">
+        <v>1.562822086042333</v>
+      </c>
+      <c r="R5">
+        <v>14.065398774381</v>
+      </c>
+      <c r="S5">
+        <v>0.05181990728525295</v>
+      </c>
+      <c r="T5">
+        <v>0.05181990728525294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.774372558241177</v>
-      </c>
-      <c r="H5">
-        <v>0.774372558241177</v>
-      </c>
-      <c r="I5">
-        <v>0.1190992632038136</v>
-      </c>
-      <c r="J5">
-        <v>0.1190992632038136</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.17116045099787</v>
-      </c>
-      <c r="N5">
-        <v>1.17116045099787</v>
-      </c>
-      <c r="O5">
-        <v>0.5191089023439134</v>
-      </c>
-      <c r="P5">
-        <v>0.5191089023439134</v>
-      </c>
-      <c r="Q5">
-        <v>0.9069145145501112</v>
-      </c>
-      <c r="R5">
-        <v>0.9069145145501112</v>
-      </c>
-      <c r="S5">
-        <v>0.06182548779170049</v>
-      </c>
-      <c r="T5">
-        <v>0.06182548779170049</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.482087</v>
+      </c>
+      <c r="I6">
+        <v>0.1138515614822752</v>
+      </c>
+      <c r="J6">
+        <v>0.1138515614822752</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.087098333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.261295</v>
+      </c>
+      <c r="O6">
+        <v>0.2619465454094788</v>
+      </c>
+      <c r="P6">
+        <v>0.2619465454094787</v>
+      </c>
+      <c r="Q6">
+        <v>0.8994242136294444</v>
+      </c>
+      <c r="R6">
+        <v>8.094817922664999</v>
+      </c>
+      <c r="S6">
+        <v>0.02982302321975686</v>
+      </c>
+      <c r="T6">
+        <v>0.02982302321975685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.482087</v>
+      </c>
+      <c r="I7">
+        <v>0.1138515614822752</v>
+      </c>
+      <c r="J7">
+        <v>0.1138515614822752</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.174057666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.522173</v>
+      </c>
+      <c r="O7">
+        <v>0.2829002128554884</v>
+      </c>
+      <c r="P7">
+        <v>0.2829002128554884</v>
+      </c>
+      <c r="Q7">
+        <v>0.9713710905612222</v>
+      </c>
+      <c r="R7">
+        <v>8.742339815051</v>
+      </c>
+      <c r="S7">
+        <v>0.03220863097726537</v>
+      </c>
+      <c r="T7">
+        <v>0.03220863097726537</v>
       </c>
     </row>
   </sheetData>
